--- a/AutoTrader/Auto_Trader_Data.xlsx
+++ b/AutoTrader/Auto_Trader_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex-Rowan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex-Rowan/Documents/GitHub/Auto-Trader-Testing/Auto-Trader-Testing-Task/AutoTrader/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -36,16 +36,66 @@
   </si>
   <si>
     <t>NumberPlate</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>MF10 YEE</t>
+  </si>
+  <si>
+    <t>Password12</t>
+  </si>
+  <si>
+    <t>selenium272@hotmail.com</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>SK13 8DN</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Within 20 miles</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>BROOKE (1)</t>
+  </si>
+  <si>
+    <t>MinPrice</t>
+  </si>
+  <si>
+    <t>MaxPrice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +118,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,18 +404,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -371,8 +428,59 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2">
+        <v>500</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/AutoTrader/Auto_Trader_Data.xlsx
+++ b/AutoTrader/Auto_Trader_Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>UserName</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>MF10 YEE</t>
-  </si>
-  <si>
     <t>Password12</t>
   </si>
   <si>
@@ -75,6 +72,15 @@
   </si>
   <si>
     <t>MaxPrice</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>MF10 YRS</t>
   </si>
 </sst>
 </file>
@@ -122,10 +128,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -418,7 +425,7 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,48 +439,60 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2">
         <v>500</v>
       </c>
       <c r="I2" s="2">
-        <v>2000</v>
+        <v>20000</v>
+      </c>
+      <c r="J2">
+        <v>30000</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6560</v>
       </c>
     </row>
   </sheetData>
